--- a/documents/Excel/Company_List.xlsx
+++ b/documents/Excel/Company_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-vac!t\documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A44AD8AF-C513-400C-BFF7-842CE717D1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AF4A49-3557-41F3-BDA0-A15092B6609C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE72D7FD-EA89-4550-8296-349C469E4714}"/>
   </bookViews>
@@ -165,28 +165,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -200,8 +179,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7579C78-1F40-4BFD-A170-73CECD979B4C}" name="Tabel2" displayName="Tabel2" ref="A3:F22" totalsRowShown="0">
-  <autoFilter ref="A3:F22" xr:uid="{D7579C78-1F40-4BFD-A170-73CECD979B4C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7579C78-1F40-4BFD-A170-73CECD979B4C}" name="Tabel2" displayName="Tabel2" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20" xr:uid="{D7579C78-1F40-4BFD-A170-73CECD979B4C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8343FA85-0C46-46E8-9BA4-8817231D1263}" name="Name Company"/>
     <tableColumn id="2" xr3:uid="{2B323128-AA96-42FF-90BB-E4A29BB963DB}" name="Address"/>
@@ -511,11 +490,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045ADD3-B76B-4F0C-9F05-FEF25511C5F7}">
-  <dimension ref="A3:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -527,94 +504,94 @@
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://www.google.com/search?sca_esv=561536078&amp;tbs=lf:1,lf_ui:4&amp;tbm=lcl&amp;q=dsm+contact+number&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwifi_rdloaBAxWfzwIHHUV2B_gQjGp6BAgWEAE&amp;biw=1536&amp;bih=747&amp;dpr=1.25" xr:uid="{40DE28BB-B9B0-45E5-A18F-B415AED12C2D}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{B20C50BE-60BA-47B8-86EC-25D4900FDEC4}"/>
-    <hyperlink ref="F5" r:id="rId3" display="https://www.google.com/search?q=educom+sittard&amp;sca_esv=561545016&amp;source=hp&amp;ei=lTnwZJDuCK2P9u8P7sKm2Aw&amp;iflsig=AD69kcEAAAAAZPBHpRUM-71lah4c1noum1XHSq1hPAQz&amp;gs_ssp=eJzj4tZP1zcsSa4wKDAwMWC0UjWoMDFPNkg2tzBNSjY1TDFLtbQCChklpRknphkZGySlGlgaGHjxpaaUJufnKhRnlpQkFqUAAI0fFB4&amp;oq=educom+si&amp;gs_lp=Egdnd3Mtd2l6IgllZHVjb20gc2kqAggAMgsQLhiABBjHARivATIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHkjSHFAAWKMRcAB4AJABAJgBbaAB5AWqAQM4LjG4AQPIAQD4AQHCAhEQLhiABBixAxiDARjHARjRA8ICDhAuGIAEGLEDGMcBGNEDwgILEAAYgAQYsQMYgwHCAhEQLhiABBixAxiDARjHARivAcICCxAuGIAEGLEDGIMBwgIIEC4YgAQYsQPCAgUQABiABMICCxAAGIoFGLEDGIMBwgIFEC4YgATCAgIQJg&amp;sclient=gws-wiz" xr:uid="{58FB7196-93EA-4474-A355-BBB2EBE719E5}"/>
-    <hyperlink ref="E5" r:id="rId4" display="mailto:sittard@edu-deta.com" xr:uid="{8FADC9A6-E1C0-49E1-A4DF-87BBCF9113B6}"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://www.google.com/search?q=prorail+utrecht&amp;sca_esv=561558033&amp;ei=VzrwZNy3DsXm7_UPmaKC0Ao&amp;oq=prorail+u&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiCXByb3JhaWwgdSoCCAAyBRAAGIAEMgsQLhivARjHARiABDIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyBRAAGIAEMgUQABiABEiXFFDJBFj0B3ABeAGQAQCYAV-gAbQBqgEBMrgBA8gBAPgBAcICChAAGEcY1gQYsAPCAgwQABiKBRiwAxgKGEPCAgoQABiKBRiwAxhDwgIQEC4YigUYxwEYrwEYsAMYQ8ICDhAAGOQCGNYEGLAD2AEBwgIWEC4YigUYxwEY0QMYyAMYsAMYQ9gBAsICEBAuGIoFGMgDGLADGEPYAQLCAgcQABiKBRhD4gMEGAAgQYgGAZAGE7oGBggBEAEYCboGBggCEAEYCA&amp;sclient=gws-wiz-serp" xr:uid="{D93361AE-BCFA-4A8B-86D5-584D745612FF}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{91C38DB8-1C46-4068-BF2C-E052B94D8E22}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.google.com/search?sca_esv=561536078&amp;tbs=lf:1,lf_ui:4&amp;tbm=lcl&amp;q=dsm+contact+number&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwifi_rdloaBAxWfzwIHHUV2B_gQjGp6BAgWEAE&amp;biw=1536&amp;bih=747&amp;dpr=1.25" xr:uid="{40DE28BB-B9B0-45E5-A18F-B415AED12C2D}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{B20C50BE-60BA-47B8-86EC-25D4900FDEC4}"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.google.com/search?q=educom+sittard&amp;sca_esv=561545016&amp;source=hp&amp;ei=lTnwZJDuCK2P9u8P7sKm2Aw&amp;iflsig=AD69kcEAAAAAZPBHpRUM-71lah4c1noum1XHSq1hPAQz&amp;gs_ssp=eJzj4tZP1zcsSa4wKDAwMWC0UjWoMDFPNkg2tzBNSjY1TDFLtbQCChklpRknphkZGySlGlgaGHjxpaaUJufnKhRnlpQkFqUAAI0fFB4&amp;oq=educom+si&amp;gs_lp=Egdnd3Mtd2l6IgllZHVjb20gc2kqAggAMgsQLhiABBjHARivATIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHkjSHFAAWKMRcAB4AJABAJgBbaAB5AWqAQM4LjG4AQPIAQD4AQHCAhEQLhiABBixAxiDARjHARjRA8ICDhAuGIAEGLEDGMcBGNEDwgILEAAYgAQYsQMYgwHCAhEQLhiABBixAxiDARjHARivAcICCxAuGIAEGLEDGIMBwgIIEC4YgAQYsQPCAgUQABiABMICCxAAGIoFGLEDGIMBwgIFEC4YgATCAgIQJg&amp;sclient=gws-wiz" xr:uid="{58FB7196-93EA-4474-A355-BBB2EBE719E5}"/>
+    <hyperlink ref="E3" r:id="rId4" display="mailto:sittard@edu-deta.com" xr:uid="{8FADC9A6-E1C0-49E1-A4DF-87BBCF9113B6}"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.google.com/search?q=prorail+utrecht&amp;sca_esv=561558033&amp;ei=VzrwZNy3DsXm7_UPmaKC0Ao&amp;oq=prorail+u&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiCXByb3JhaWwgdSoCCAAyBRAAGIAEMgsQLhivARjHARiABDIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyBRAAGIAEMgUQABiABEiXFFDJBFj0B3ABeAGQAQCYAV-gAbQBqgEBMrgBA8gBAPgBAcICChAAGEcY1gQYsAPCAgwQABiKBRiwAxgKGEPCAgoQABiKBRiwAxhDwgIQEC4YigUYxwEYrwEYsAMYQ8ICDhAAGOQCGNYEGLAD2AEBwgIWEC4YigUYxwEY0QMYyAMYsAMYQ9gBAsICEBAuGIoFGMgDGLADGEPYAQLCAgcQABiKBRhD4gMEGAAgQYgGAZAGE7oGBggBEAEYCboGBggCEAEYCA&amp;sclient=gws-wiz-serp" xr:uid="{D93361AE-BCFA-4A8B-86D5-584D745612FF}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{91C38DB8-1C46-4068-BF2C-E052B94D8E22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/documents/Excel/Company_List.xlsx
+++ b/documents/Excel/Company_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-vac!t\documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AF4A49-3557-41F3-BDA0-A15092B6609C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5FF6F1-C562-4C04-B504-1350A31DAFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE72D7FD-EA89-4550-8296-349C469E4714}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name Company</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>example@prorail.com</t>
+  </si>
+  <si>
+    <t>Logo Url</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTWObZZMgh-WOpptwounytM1EP5FcMEEuK8KQuFJR3U&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTGvEYISrNaQz9IbCp0P3JQMcNtuV3knSAjcsEzLhM-&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGuY8P7GtYaAsrSVcXnImlR_xR5pOvdYR_PFnzk9_Q-w&amp;s</t>
   </si>
 </sst>
 </file>
@@ -179,15 +191,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7579C78-1F40-4BFD-A170-73CECD979B4C}" name="Tabel2" displayName="Tabel2" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20" xr:uid="{D7579C78-1F40-4BFD-A170-73CECD979B4C}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7579C78-1F40-4BFD-A170-73CECD979B4C}" name="Tabel2" displayName="Tabel2" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{D7579C78-1F40-4BFD-A170-73CECD979B4C}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{8343FA85-0C46-46E8-9BA4-8817231D1263}" name="Name Company"/>
     <tableColumn id="2" xr3:uid="{2B323128-AA96-42FF-90BB-E4A29BB963DB}" name="Address"/>
     <tableColumn id="3" xr3:uid="{8B827ABE-7A35-49D3-B2E2-2BECDF6FB46C}" name="Location"/>
     <tableColumn id="4" xr3:uid="{A994CB26-D4C6-403E-9F7E-7F051A5620DF}" name="Postal Code"/>
     <tableColumn id="5" xr3:uid="{F95EEBBC-F40A-40E9-89B0-7E2A4790B2CB}" name="Email"/>
     <tableColumn id="6" xr3:uid="{2BDAE435-1ABB-4767-88DA-38D17ACB11D5}" name="Phonenumber"/>
+    <tableColumn id="7" xr3:uid="{237FF4F0-7D54-440B-B6C7-2990C4CF6DAB}" name="Logo Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,9 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045ADD3-B76B-4F0C-9F05-FEF25511C5F7}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -502,9 +517,10 @@
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +539,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -543,8 +562,11 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -563,8 +585,11 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -582,6 +607,9 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
